--- a/data/532/HKCSD/Producer Price Index.xlsx
+++ b/data/532/HKCSD/Producer Price Index.xlsx
@@ -588,10 +588,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -658,10 +656,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -728,10 +724,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
@@ -798,10 +792,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
@@ -868,10 +860,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
@@ -938,10 +928,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -1008,10 +996,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
@@ -1078,10 +1064,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -1148,10 +1132,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
@@ -1218,10 +1200,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
@@ -1288,10 +1268,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -1358,10 +1336,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
@@ -1428,10 +1404,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
@@ -1498,10 +1472,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
@@ -1568,10 +1540,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
@@ -1638,10 +1608,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
@@ -1708,14 +1676,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2021 p</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>2021 p</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1778,10 +1744,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
@@ -2046,10 +2010,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
@@ -2314,10 +2276,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
@@ -2582,10 +2542,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
@@ -2850,10 +2808,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
@@ -3118,10 +3074,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
@@ -3386,10 +3340,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
@@ -3654,10 +3606,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
@@ -3922,10 +3872,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
@@ -4190,10 +4138,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
@@ -4458,10 +4404,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
@@ -4726,10 +4670,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
@@ -4994,10 +4936,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
@@ -5262,10 +5202,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
@@ -5530,10 +5468,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
@@ -5798,10 +5734,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A82" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
@@ -6066,10 +6000,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
@@ -6271,15 +6203,15 @@
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Q4 p</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+1.9</t>
+          <t>+1.8</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -6291,15 +6223,15 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>+1.7</t>
+          <t>+1.6</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>115</v>
+        <v>114.9</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6315,7 +6247,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6324,12 +6256,12 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>114.1</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>+6.2</t>
+          <t>+6.1</t>
         </is>
       </c>
     </row>
